--- a/Section 18/movie_ranking.xlsx
+++ b/Section 18/movie_ranking.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오펜하이머</t>
+          <t>베니스 유령 살인사건</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>달짝지근해: 7510</t>
+          <t>오펜하이머</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>콘크리트 유토피아</t>
+          <t>달짝지근해: 7510</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>타겟</t>
+          <t>콘크리트 유토피아</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>엘리멘탈</t>
+          <t>닌자터틀: 뮤턴트 대소동</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>밀수</t>
+          <t>아이유 콘서트 : 더 골든 아워</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>해리 포터와 혼혈 왕자</t>
+          <t>여름을 향한 터널, 이별의 출구</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>신체모음.zip</t>
+          <t>타겟</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>마야 3: 숲속 왕국의 위기</t>
+          <t>엘리멘탈</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>생츄어리: 마법의 소원나무</t>
+          <t>밀수</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>듣보인간의 생존신고</t>
+          <t>해리 포터와 혼혈 왕자</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>스파이 코드명 포춘</t>
+          <t>치악산</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>일주일간 친구</t>
+          <t>신체모음.zip</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>오즈의 마법사</t>
+          <t>1947 보스톤</t>
         </is>
       </c>
     </row>

--- a/Section 18/movie_ranking.xlsx
+++ b/Section 18/movie_ranking.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>잠</t>
+          <t>30일</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>베니스 유령 살인사건</t>
+          <t>천박사 퇴마 연구소: 설경의 비밀</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>오펜하이머</t>
+          <t>1947 보스톤</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>달짝지근해: 7510</t>
+          <t>크리에이터</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>콘크리트 유토피아</t>
+          <t>더 넌 2</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>닌자터틀: 뮤턴트 대소동</t>
+          <t>거미집</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아이유 콘서트 : 더 골든 아워</t>
+          <t>극장판 엉덩이 탐정: 미스터리 가면 ~최강의 대결</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여름을 향한 터널, 이별의 출구</t>
+          <t>퍼피 구조대: 더 마이티 무비</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>타겟</t>
+          <t>사나: 저주의 아이</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>엘리멘탈</t>
+          <t>잠</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>밀수</t>
+          <t>화란</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>해리 포터와 혼혈 왕자</t>
+          <t>오펜하이머</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>치악산</t>
+          <t>드림쏭2</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>신체모음.zip</t>
+          <t>아르고 원정대: 꼬마 영웅 패티의 대모험</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1947 보스톤</t>
+          <t>그란 투리스모</t>
         </is>
       </c>
     </row>

--- a/Section 18/movie_ranking.xlsx
+++ b/Section 18/movie_ranking.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>천박사 퇴마 연구소: 설경의 비밀</t>
+          <t>화란</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1947 보스톤</t>
+          <t>플라워 킬링 문</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>크리에이터</t>
+          <t>엑소시스트: 믿는 자</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>더 넌 2</t>
+          <t>천박사 퇴마 연구소: 설경의 비밀</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>거미집</t>
+          <t>익스펜더블 4</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>극장판 엉덩이 탐정: 미스터리 가면 ~최강의 대결</t>
+          <t>1947 보스톤</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>퍼피 구조대: 더 마이티 무비</t>
+          <t>블루 자이언트</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>사나: 저주의 아이</t>
+          <t>바람 따라 만나리 : 김호중의 계절</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>잠</t>
+          <t>화사한 그녀</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>화란</t>
+          <t>퍼피 구조대: 더 마이티 무비</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>오펜하이머</t>
+          <t>마브카 : 숲의 노래</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>드림쏭2</t>
+          <t>괴담만찬</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아르고 원정대: 꼬마 영웅 패티의 대모험</t>
+          <t>사나: 저주의 아이</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>그란 투리스모</t>
+          <t>크리에이터</t>
         </is>
       </c>
     </row>
